--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="873">
   <si>
     <t>anchor score</t>
   </si>
@@ -292,496 +292,496 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>fraudulent</t>
+  </si>
+  <si>
+    <t>midst</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>fraudulent</t>
-  </si>
-  <si>
-    <t>midst</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>social</t>
@@ -2998,10 +2998,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3059,7 +3059,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0319003147284079</v>
+        <v>0.03238593545639522</v>
       </c>
       <c r="C3">
         <v>235</v>
@@ -3080,28 +3080,28 @@
         <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="K3">
-        <v>0.005258226141238466</v>
+        <v>0.008793207750133439</v>
       </c>
       <c r="L3">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="M3">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>291</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3109,7 +3109,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0186902654689741</v>
+        <v>0.01897478869078536</v>
       </c>
       <c r="C4">
         <v>237</v>
@@ -3130,28 +3130,28 @@
         <v>277</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="K4">
-        <v>0.004659758282231591</v>
+        <v>0.00771556507529726</v>
       </c>
       <c r="L4">
-        <v>662</v>
+        <v>174</v>
       </c>
       <c r="M4">
-        <v>696</v>
+        <v>174</v>
       </c>
       <c r="N4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2411</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3159,7 +3159,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01332456270818617</v>
+        <v>0.01352740346062237</v>
       </c>
       <c r="C5">
         <v>41</v>
@@ -3180,28 +3180,28 @@
         <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="K5">
-        <v>0.00431284222389539</v>
+        <v>0.005258226141238466</v>
       </c>
       <c r="L5">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="M5">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>84</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3209,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01158622301332644</v>
+        <v>0.01176260089869397</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3230,28 +3230,28 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>0.004177132029088809</v>
+        <v>0.004659758282231591</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>662</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>696</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>179</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3259,7 +3259,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0112062430004246</v>
+        <v>0.0113768364234112</v>
       </c>
       <c r="C7">
         <v>29</v>
@@ -3280,28 +3280,28 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="K7">
-        <v>0.003745286479594818</v>
+        <v>0.00431284222389539</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3309,7 +3309,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01040473541829033</v>
+        <v>0.01056312743515172</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3330,28 +3330,28 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="K8">
-        <v>0.003688589359678569</v>
+        <v>0.004177132029088809</v>
       </c>
       <c r="L8">
-        <v>441</v>
+        <v>51</v>
       </c>
       <c r="M8">
-        <v>465</v>
+        <v>51</v>
       </c>
       <c r="N8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1678</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3359,7 +3359,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009979871622153025</v>
+        <v>0.01013179590765401</v>
       </c>
       <c r="C9">
         <v>23</v>
@@ -3380,28 +3380,28 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="K9">
-        <v>0.003588137544929376</v>
+        <v>0.003745286479594818</v>
       </c>
       <c r="L9">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3409,7 +3409,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009760506996548398</v>
+        <v>0.009909091878971776</v>
       </c>
       <c r="C10">
         <v>22</v>
@@ -3430,28 +3430,28 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="K10">
-        <v>0.00354891609684519</v>
+        <v>0.003688589359678569</v>
       </c>
       <c r="L10">
-        <v>141</v>
+        <v>441</v>
       </c>
       <c r="M10">
-        <v>143</v>
+        <v>465</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>424</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3459,7 +3459,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009536097528060691</v>
+        <v>0.009681266209409499</v>
       </c>
       <c r="C11">
         <v>21</v>
@@ -3480,28 +3480,28 @@
         <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="K11">
-        <v>0.003509492873213141</v>
+        <v>0.003588137544929376</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3509,7 +3509,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.00882871076486993</v>
+        <v>0.008963110847920133</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -3530,28 +3530,28 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>259</v>
+        <v>129</v>
       </c>
       <c r="K12">
-        <v>0.003460406639358074</v>
+        <v>0.00354891609684519</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3559,7 +3559,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008579964627243237</v>
+        <v>0.008710578030398063</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -3580,16 +3580,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K13">
-        <v>0.003410614019834707</v>
+        <v>0.003509492873213141</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3609,7 +3609,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008323788334632265</v>
+        <v>0.008450501948121377</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -3630,28 +3630,28 @@
         <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c r="K14">
-        <v>0.003372722108830085</v>
+        <v>0.003460406639358074</v>
       </c>
       <c r="L14">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>271</v>
+        <v>35</v>
       </c>
       <c r="N14">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>623</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3659,7 +3659,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008059473399346583</v>
+        <v>0.008182163328041857</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -3680,28 +3680,28 @@
         <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>91</v>
+        <v>260</v>
       </c>
       <c r="K15">
-        <v>0.003317390460563732</v>
+        <v>0.003410614019834707</v>
       </c>
       <c r="L15">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="N15">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>662</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3709,7 +3709,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008059473399346583</v>
+        <v>0.008182163328041857</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -3730,28 +3730,28 @@
         <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16">
+        <v>0.003372722108830085</v>
+      </c>
+      <c r="L16">
         <v>261</v>
       </c>
-      <c r="K16">
-        <v>0.003308781612233163</v>
-      </c>
-      <c r="L16">
-        <v>32</v>
-      </c>
       <c r="M16">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>59</v>
+        <v>623</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3759,7 +3759,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008059473399346583</v>
+        <v>0.008182163328041857</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -3780,28 +3780,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="K17">
-        <v>0.003256671558513677</v>
+        <v>0.003317390460563732</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>662</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3809,7 +3809,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007786191027054894</v>
+        <v>0.007904720759033982</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -3830,16 +3830,16 @@
         <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K18">
-        <v>0.003203714020104092</v>
+        <v>0.003308781612233163</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3859,7 +3859,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007786191027054894</v>
+        <v>0.007904720759033982</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -3880,28 +3880,28 @@
         <v>63</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="K19">
-        <v>0.003183970406195669</v>
+        <v>0.003256671558513677</v>
       </c>
       <c r="L19">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3909,7 +3909,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007502961411656409</v>
+        <v>0.007617179519339989</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -3930,16 +3930,16 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K20">
-        <v>0.003095081790158502</v>
+        <v>0.003203714020104092</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -3959,7 +3959,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007502961411656409</v>
+        <v>0.007617179519339989</v>
       </c>
       <c r="C21">
         <v>13</v>
@@ -3980,28 +3980,28 @@
         <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K21">
-        <v>0.002961194731498835</v>
+        <v>0.003183970406195669</v>
       </c>
       <c r="L21">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="M21">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>3016</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4009,7 +4009,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007502961411656409</v>
+        <v>0.007617179519339989</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K22">
-        <v>0.002865488931768751</v>
+        <v>0.003095081790158502</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4059,7 +4059,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007208612153516107</v>
+        <v>0.007318349361803001</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -4080,28 +4080,28 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>266</v>
+        <v>125</v>
       </c>
       <c r="K23">
-        <v>0.002865488931768751</v>
+        <v>0.002961194731498835</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4109,7 +4109,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007208612153516107</v>
+        <v>0.007318349361803001</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -4130,28 +4130,28 @@
         <v>39</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="K24">
-        <v>0.002821797298965997</v>
+        <v>0.002865488931768751</v>
       </c>
       <c r="L24">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4159,7 +4159,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006901720685078114</v>
+        <v>0.00700678606302149</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -4180,16 +4180,16 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K25">
-        <v>0.002805156092032818</v>
+        <v>0.002865488931768751</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4209,7 +4209,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006901720685078114</v>
+        <v>0.00700678606302149</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4230,28 +4230,28 @@
         <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="K26">
-        <v>0.002805156092032818</v>
+        <v>0.002821797298965997</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4259,7 +4259,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006901720685078114</v>
+        <v>0.00700678606302149</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4280,16 +4280,16 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K27">
-        <v>0.002743496780251154</v>
+        <v>0.002805156092032818</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4309,7 +4309,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006580532474644443</v>
+        <v>0.0066807083819384</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -4330,16 +4330,16 @@
         <v>29</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K28">
-        <v>0.002680419457067879</v>
+        <v>0.002805156092032818</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>143</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4359,7 +4359,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006580532474644443</v>
+        <v>0.0066807083819384</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -4380,16 +4380,16 @@
         <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K29">
-        <v>0.002615821543685211</v>
+        <v>0.002743496780251154</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4409,7 +4409,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -4430,16 +4430,16 @@
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K30">
-        <v>0.002615821543685211</v>
+        <v>0.002680419457067879</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>78</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4459,7 +4459,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -4480,28 +4480,28 @@
         <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="K31">
-        <v>0.002578246684476838</v>
+        <v>0.002615821543685211</v>
       </c>
       <c r="L31">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4509,7 +4509,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -4530,28 +4530,28 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="K32">
-        <v>0.002482066000446573</v>
+        <v>0.002615821543685211</v>
       </c>
       <c r="L32">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4559,7 +4559,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -4580,28 +4580,28 @@
         <v>21</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="K33">
-        <v>0.002481586209174872</v>
+        <v>0.002578246684476838</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4609,7 +4609,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C34">
         <v>9</v>
@@ -4630,28 +4630,28 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K34">
-        <v>0.00246457697573181</v>
+        <v>0.002482066000446573</v>
       </c>
       <c r="L34">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="M34">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>218</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4659,7 +4659,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -4680,28 +4680,28 @@
         <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>92</v>
+        <v>273</v>
       </c>
       <c r="K35">
-        <v>0.002457653347377181</v>
+        <v>0.002481586209174872</v>
       </c>
       <c r="L35">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4709,7 +4709,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -4730,28 +4730,28 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="K36">
-        <v>0.002411668301435031</v>
+        <v>0.00246457697573181</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4759,7 +4759,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -4780,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K37">
         <v>0.002411668301435031</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4809,7 +4809,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006242841250974199</v>
+        <v>0.006337876461091033</v>
       </c>
       <c r="C38">
         <v>9</v>
@@ -4830,7 +4830,7 @@
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K38">
         <v>0.002411668301435031</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4859,7 +4859,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005885807176579954</v>
+        <v>0.005975407231946756</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -4880,16 +4880,16 @@
         <v>72</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K39">
-        <v>0.002339661915475427</v>
+        <v>0.002411668301435031</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>290</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4909,7 +4909,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005885807176579954</v>
+        <v>0.005975407231946756</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -4930,16 +4930,16 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K40">
-        <v>0.002265367908598019</v>
+        <v>0.002339661915475427</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>94</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -4959,7 +4959,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005885807176579954</v>
+        <v>0.005975407231946756</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -4980,7 +4980,7 @@
         <v>12</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K41">
         <v>0.002265367908598019</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5009,7 +5009,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005505668474844365</v>
+        <v>0.005589481652099003</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -5030,28 +5030,28 @@
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="K42">
-        <v>0.002253949080934734</v>
+        <v>0.002265367908598019</v>
       </c>
       <c r="L42">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>208</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5059,7 +5059,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005505668474844365</v>
+        <v>0.005589481652099003</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -5080,28 +5080,28 @@
         <v>30</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="K43">
-        <v>0.002236675912351384</v>
+        <v>0.002253949080934734</v>
       </c>
       <c r="L43">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="M43">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="N43">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>103</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5109,7 +5109,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005505668474844365</v>
+        <v>0.005589481652099003</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -5130,28 +5130,28 @@
         <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K44">
-        <v>0.002232827125979943</v>
+        <v>0.002236675912351384</v>
       </c>
       <c r="L44">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="M44">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5159,7 +5159,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005505668474844365</v>
+        <v>0.005589481652099003</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -5180,28 +5180,28 @@
         <v>142</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="K45">
-        <v>0.002188553322148075</v>
+        <v>0.002232827125979943</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5209,7 +5209,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005097258536695</v>
+        <v>0.005174854460823144</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5230,7 +5230,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K46">
         <v>0.002188553322148075</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5259,7 +5259,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005097258536695</v>
+        <v>0.005174854460823144</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5280,28 +5280,28 @@
         <v>3</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>124</v>
+        <v>281</v>
       </c>
       <c r="K47">
-        <v>0.002150788730668074</v>
+        <v>0.002188553322148075</v>
       </c>
       <c r="L47">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="N47">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5309,7 +5309,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005097258536695</v>
+        <v>0.005174854460823144</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5330,28 +5330,28 @@
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>282</v>
+        <v>123</v>
       </c>
       <c r="K48">
-        <v>0.002108942750874236</v>
+        <v>0.002150788730668074</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5359,7 +5359,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005097258536695</v>
+        <v>0.005174854460823144</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -5380,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K49">
         <v>0.002108942750874236</v>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5409,7 +5409,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005097258536695</v>
+        <v>0.005174854460823144</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -5430,7 +5430,7 @@
         <v>3</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K50">
         <v>0.002108942750874236</v>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5459,7 +5459,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005097258536695</v>
+        <v>0.005174854460823144</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -5480,7 +5480,7 @@
         <v>7</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K51">
         <v>0.002108942750874236</v>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5509,7 +5509,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004653139136639378</v>
+        <v>0.00472397419999845</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5530,7 +5530,7 @@
         <v>3</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K52">
         <v>0.002108942750874236</v>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -5559,7 +5559,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004653139136639378</v>
+        <v>0.00472397419999845</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -5580,28 +5580,28 @@
         <v>33</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="K53">
-        <v>0.002062013037911048</v>
+        <v>0.002108942750874236</v>
       </c>
       <c r="L53">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="N53">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>276</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -5609,7 +5609,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004653139136639378</v>
+        <v>0.00472397419999845</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -5630,28 +5630,28 @@
         <v>14</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="K54">
-        <v>0.00202620665506868</v>
+        <v>0.002062013037911048</v>
       </c>
       <c r="L54">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="M54">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -5659,7 +5659,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004653139136639378</v>
+        <v>0.00472397419999845</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -5680,7 +5680,7 @@
         <v>11</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K55">
         <v>0.00202620665506868</v>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -5709,7 +5709,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004653139136639378</v>
+        <v>0.00472397419999845</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -5730,7 +5730,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K56">
         <v>0.00202620665506868</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -5759,7 +5759,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -5780,7 +5780,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K57">
         <v>0.00202620665506868</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -5809,7 +5809,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -5830,28 +5830,28 @@
         <v>3</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="K58">
-        <v>0.002024362357496696</v>
+        <v>0.00202620665506868</v>
       </c>
       <c r="L58">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M58">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="N58">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -5859,7 +5859,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -5909,7 +5909,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -5959,7 +5959,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6009,7 +6009,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6059,7 +6059,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6109,7 +6109,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004161894167316132</v>
+        <v>0.004225250974060689</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6130,7 +6130,7 @@
         <v>19</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K64">
         <v>0.001925773247805727</v>
@@ -6159,7 +6159,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.00375700501669995</v>
+        <v>0.00381419816751351</v>
       </c>
       <c r="C65">
         <v>34</v>
@@ -6180,7 +6180,7 @@
         <v>2411</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K65">
         <v>0.001900619998960321</v>
@@ -6209,7 +6209,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6230,7 +6230,7 @@
         <v>18</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K66">
         <v>0.001874672527059705</v>
@@ -6259,7 +6259,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6309,7 +6309,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6359,7 +6359,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6409,7 +6409,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003604306076758053</v>
+        <v>0.0036591746809015</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6459,7 +6459,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003061361086504446</v>
+        <v>0.003107964400989505</v>
       </c>
       <c r="C71">
         <v>24</v>
@@ -6509,7 +6509,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6559,7 +6559,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -6580,7 +6580,7 @@
         <v>14</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K73">
         <v>0.001836821601855099</v>
@@ -6609,7 +6609,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6659,7 +6659,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6709,7 +6709,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6759,7 +6759,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -6809,7 +6809,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -6859,7 +6859,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -6880,7 +6880,7 @@
         <v>11</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K79">
         <v>0.001730847776071361</v>
@@ -6909,7 +6909,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -6930,7 +6930,7 @@
         <v>164</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K80">
         <v>0.001665368702658805</v>
@@ -6959,7 +6959,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7009,7 +7009,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002942903588289977</v>
+        <v>0.002987703615973378</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7059,7 +7059,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002621912017167727</v>
+        <v>0.002661825567655736</v>
       </c>
       <c r="C83">
         <v>18</v>
@@ -7109,7 +7109,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002375686267269518</v>
+        <v>0.002411851505901271</v>
       </c>
       <c r="C84">
         <v>7</v>
@@ -7159,7 +7159,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002348703679227445</v>
+        <v>0.002384458160029392</v>
       </c>
       <c r="C85">
         <v>10</v>
@@ -7209,7 +7209,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002196359957104706</v>
+        <v>0.002229795298742309</v>
       </c>
       <c r="C86">
         <v>8</v>
@@ -7259,25 +7259,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002176197695393839</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C87">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>313</v>
@@ -7309,7 +7309,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>314</v>
@@ -7359,7 +7359,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>315</v>
@@ -7409,7 +7409,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>316</v>
@@ -7459,7 +7459,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>317</v>
@@ -7509,7 +7509,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>318</v>
@@ -7559,7 +7559,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>319</v>
@@ -7609,7 +7609,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7627,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>320</v>
@@ -7659,7 +7659,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>321</v>
@@ -7709,7 +7709,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>322</v>
@@ -7759,7 +7759,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7777,10 +7777,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K97">
         <v>0.001475237309753216</v>
@@ -7809,7 +7809,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7827,10 +7827,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K98">
         <v>0.001468199392569031</v>
@@ -7859,7 +7859,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7877,10 +7877,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K99">
         <v>0.001436031254699369</v>
@@ -7909,7 +7909,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7930,7 +7930,7 @@
         <v>10</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K100">
         <v>0.001433021473504245</v>
@@ -7959,7 +7959,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>323</v>
@@ -8009,7 +8009,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>324</v>
@@ -8059,7 +8059,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>325</v>
@@ -8109,7 +8109,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>326</v>
@@ -8159,7 +8159,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>327</v>
@@ -8209,7 +8209,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>328</v>
@@ -8259,7 +8259,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>329</v>
@@ -8309,7 +8309,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>330</v>
@@ -8359,7 +8359,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>331</v>
@@ -8409,7 +8409,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>38</v>
+        <v>372</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>332</v>
@@ -8459,7 +8459,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>372</v>
+        <v>33</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>333</v>
@@ -8509,7 +8509,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>334</v>
@@ -8559,7 +8559,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>335</v>
@@ -8609,7 +8609,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>336</v>
@@ -8659,7 +8659,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>337</v>
@@ -8709,7 +8709,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>338</v>
@@ -8759,7 +8759,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002080947083658066</v>
+        <v>0.002112625487030344</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>339</v>
@@ -8809,25 +8809,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002080947083658066</v>
+        <v>0.002055304498157399</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>340</v>
@@ -8859,25 +8859,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002024485611731386</v>
+        <v>0.002042184553164012</v>
       </c>
       <c r="C119">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D119">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E119">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F119">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>341</v>
@@ -8909,25 +8909,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002011562397730916</v>
+        <v>0.001958147841193267</v>
       </c>
       <c r="C120">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D120">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E120">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F120">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>218</v>
+        <v>3016</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>342</v>
@@ -8959,25 +8959,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001928785799716114</v>
+        <v>0.001708614182437682</v>
       </c>
       <c r="C121">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D121">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="E121">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F121">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>3016</v>
+        <v>276</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>343</v>
@@ -9009,28 +9009,28 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001891351177905654</v>
+        <v>0.001651257010341058</v>
       </c>
       <c r="C122">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="E122">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F122">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>53</v>
+        <v>729</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K122">
         <v>0.001391568315672111</v>
@@ -9059,25 +9059,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001682993849060497</v>
+        <v>0.001646185906419205</v>
       </c>
       <c r="C123">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E123">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F123">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>344</v>
@@ -9109,25 +9109,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001626496736470456</v>
+        <v>0.001526618685891747</v>
       </c>
       <c r="C124">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E124">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F124">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>729</v>
+        <v>424</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>345</v>
@@ -9159,13 +9159,13 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001621501672753819</v>
+        <v>0.001494140630134409</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E125">
         <v>0.97</v>
@@ -9177,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>346</v>
@@ -9209,25 +9209,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001503727339165018</v>
+        <v>0.001466428407136878</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E126">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F126">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>424</v>
+        <v>17</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>347</v>
@@ -9259,13 +9259,13 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001471736285461449</v>
+        <v>0.001431687592812802</v>
       </c>
       <c r="C127">
         <v>3</v>
       </c>
       <c r="D127">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E127">
         <v>0.97</v>
@@ -9277,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>9</v>
+        <v>208</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>348</v>
@@ -9309,25 +9309,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001444439601793463</v>
+        <v>0.001425638814310944</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E128">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F128">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>349</v>
@@ -9359,25 +9359,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001410219719142508</v>
+        <v>0.001407928207735559</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D129">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E129">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F129">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>350</v>
@@ -9409,25 +9409,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001404261640883769</v>
+        <v>0.001363539726036573</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="E130">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F130">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>13</v>
+        <v>291</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>351</v>
@@ -9459,25 +9459,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.00138681660136819</v>
+        <v>0.001268401671020613</v>
       </c>
       <c r="C131">
         <v>7</v>
       </c>
       <c r="D131">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E131">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F131">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>352</v>
@@ -9509,25 +9509,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001343093716215764</v>
+        <v>0.001227260833367059</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D132">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="E132">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="F132">
-        <v>0.01000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>353</v>
@@ -9559,25 +9559,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001249382237609751</v>
+        <v>0.001219155946523913</v>
       </c>
       <c r="C133">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="E133">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F133">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>354</v>
@@ -9609,25 +9609,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001208858298719496</v>
+        <v>0.00119287542415977</v>
       </c>
       <c r="C134">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E134">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F134">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>355</v>
@@ -9659,25 +9659,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001200874943059364</v>
+        <v>0.001180437598078212</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D135">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="E135">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F135">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>356</v>
@@ -9709,13 +9709,13 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001174988491955554</v>
+        <v>0.0011786852408054</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E136">
         <v>0.97</v>
@@ -9727,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>357</v>
@@ -9759,25 +9759,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001162737168628084</v>
+        <v>0.001152084830591908</v>
       </c>
       <c r="C137">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D137">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E137">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F137">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>358</v>
@@ -9809,25 +9809,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001161011087607679</v>
+        <v>0.001125507226162402</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E138">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F138">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>359</v>
@@ -9859,25 +9859,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001134809545309861</v>
+        <v>0.001116968177413388</v>
       </c>
       <c r="C139">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E139">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F139">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>360</v>
@@ -9909,25 +9909,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001108630466827786</v>
+        <v>0.001086341211765692</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D140">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E140">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F140">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>76</v>
+        <v>586</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>361</v>
@@ -9959,25 +9959,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001100219459434114</v>
+        <v>0.001075683214211643</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D141">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E141">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F141">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>362</v>
@@ -10009,25 +10009,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001070051739108323</v>
+        <v>0.001055166993543651</v>
       </c>
       <c r="C142">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E142">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F142">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>586</v>
+        <v>214</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>363</v>
@@ -10059,25 +10059,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001059553556129895</v>
+        <v>0.001034350059151023</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E143">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F143">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>364</v>
@@ -10109,13 +10109,13 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001039344972152829</v>
+        <v>0.001025954997780478</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
       <c r="D144">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E144">
         <v>0.96</v>
@@ -10127,7 +10127,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>365</v>
@@ -10159,13 +10159,13 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001018840183594241</v>
+        <v>0.0009708221869023637</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E145">
         <v>0.98</v>
@@ -10177,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>366</v>
@@ -10209,25 +10209,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001010571004516636</v>
+        <v>0.0009688647488636557</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D146">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E146">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F146">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>367</v>
@@ -10259,13 +10259,13 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0009562648992864312</v>
+        <v>0.0009575815283943612</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E147">
         <v>0.98</v>
@@ -10277,10 +10277,10 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K147">
         <v>0.001251792365742847</v>
@@ -10309,28 +10309,28 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0009543368126458517</v>
+        <v>0.0009257483496218567</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D148">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E148">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F148">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>19</v>
+        <v>1117</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K148">
         <v>0.001196371427773856</v>
@@ -10359,28 +10359,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.0009432227818467374</v>
+        <v>0.0008717934032969115</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E149">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F149">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K149">
         <v>0.001194595555156759</v>
@@ -10409,25 +10409,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.0009118669353245384</v>
+        <v>0.0008642291232441658</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D150">
         <v>44</v>
       </c>
       <c r="E150">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F150">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>1117</v>
+        <v>90</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>368</v>
@@ -10459,13 +10459,13 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0008587210328003541</v>
+        <v>0.0008626424950152581</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E151">
         <v>0.97</v>
@@ -10477,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>369</v>
@@ -10509,13 +10509,13 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0008512701776382021</v>
+        <v>0.0007844387848160207</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D152">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E152">
         <v>0.91</v>
@@ -10527,7 +10527,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>370</v>
@@ -10559,25 +10559,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0008497073405873076</v>
+        <v>0.0007838952398830295</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E153">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F153">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>371</v>
@@ -10609,25 +10609,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0007726762796304981</v>
+        <v>0.0007779139707892098</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E154">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F154">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>372</v>
@@ -10659,25 +10659,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0007721408850467971</v>
+        <v>0.0007666838393202102</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E155">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F155">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>373</v>
@@ -10709,25 +10709,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0007662493039058091</v>
+        <v>0.0007655612536722293</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E156">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F156">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>374</v>
@@ -10759,25 +10759,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0007551875660478791</v>
+        <v>0.0007500797138586411</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E157">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F157">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>375</v>
@@ -10809,25 +10809,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.000754081813350743</v>
+        <v>0.0007323133797544758</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158">
         <v>28</v>
       </c>
       <c r="E158">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F158">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>376</v>
@@ -10859,13 +10859,13 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0007388324161795918</v>
+        <v>0.0007323133797544758</v>
       </c>
       <c r="C159">
         <v>2</v>
       </c>
       <c r="D159">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E159">
         <v>0.93</v>
@@ -10877,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>377</v>
@@ -10909,25 +10909,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0007213324847585587</v>
+        <v>0.000725459736122805</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E160">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F160">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>378</v>
@@ -10959,25 +10959,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0007213324847585587</v>
+        <v>0.0007010913325721157</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D161">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E161">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="F161">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>379</v>
@@ -11009,13 +11009,13 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0007145816101642146</v>
+        <v>0.000695781965351332</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E162">
         <v>0.96</v>
@@ -11027,7 +11027,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>380</v>
@@ -11059,25 +11059,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0006905786060285927</v>
+        <v>0.000695781965351332</v>
       </c>
       <c r="C163">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E163">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="F163">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>381</v>
@@ -11109,7 +11109,7 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0006853488517242979</v>
+        <v>0.000695781965351332</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -11127,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>382</v>
@@ -11159,25 +11159,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0006853488517242979</v>
+        <v>0.0006905663087113853</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D165">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E165">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F165">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>383</v>
@@ -11209,25 +11209,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0006853488517242979</v>
+        <v>0.0006799116739092535</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E166">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F166">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>384</v>
@@ -11259,25 +11259,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0006802114028291246</v>
+        <v>0.0006799116739092535</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E167">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F167">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>385</v>
@@ -11309,25 +11309,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0006697165321788118</v>
+        <v>0.0006751219888527714</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E168">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F168">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>386</v>
@@ -11359,13 +11359,13 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0006697165321788118</v>
+        <v>0.000663273062098244</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E169">
         <v>0.95</v>
@@ -11377,7 +11377,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>387</v>
@@ -11409,25 +11409,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0006649986675070484</v>
+        <v>0.00064579545904115</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E170">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F170">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>388</v>
@@ -11459,13 +11459,13 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.000653327413077106</v>
+        <v>0.0006273983030750343</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E171">
         <v>0.95</v>
@@ -11477,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>389</v>
@@ -11509,25 +11509,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0006361118832379215</v>
+        <v>0.000620780363116966</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D172">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E172">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F172">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>390</v>
@@ -11559,25 +11559,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0006179905890045999</v>
+        <v>0.0006079892464584898</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E173">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F173">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>391</v>
@@ -11609,25 +11609,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0006114718837536638</v>
+        <v>0.0006079892464584898</v>
       </c>
       <c r="C174">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E174">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F174">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>392</v>
@@ -11659,25 +11659,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0005988725673719411</v>
+        <v>0.0005879779034241234</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E175">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F175">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>45</v>
+        <v>524</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>393</v>
@@ -11709,25 +11709,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0005988725673719411</v>
+        <v>0.0005879779034241234</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E176">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F176">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>394</v>
@@ -11759,25 +11759,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.000579161290487754</v>
+        <v>0.0005425363826925015</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E177">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F177">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>524</v>
+        <v>18</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>395</v>
@@ -11809,25 +11809,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.000579161290487754</v>
+        <v>0.000533055450558246</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D178">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E178">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="F178">
-        <v>0.09999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>396</v>
@@ -11859,13 +11859,13 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0005344011564157285</v>
+        <v>0.0005178237567780292</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E179">
         <v>0.93</v>
@@ -11877,7 +11877,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>397</v>
@@ -11909,25 +11909,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0005250623889927944</v>
+        <v>0.0004913523750901426</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E180">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="F180">
-        <v>0.13</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>398</v>
@@ -11959,25 +11959,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0005100590914629187</v>
+        <v>0.0004913523750901426</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E181">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F181">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>399</v>
@@ -12009,7 +12009,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0004839846429333598</v>
+        <v>0.0004913523750901426</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -12027,7 +12027,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>400</v>
@@ -12059,13 +12059,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0004839846429333598</v>
+        <v>0.000462880174936025</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E183">
         <v>0.92</v>
@@ -12077,10 +12077,10 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K183">
         <v>0.001139675432337996</v>
@@ -12109,13 +12109,13 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0004839846429333598</v>
+        <v>0.000462880174936025</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E184">
         <v>0.92</v>
@@ -12127,10 +12127,10 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K184">
         <v>0.001101367930503751</v>
@@ -12159,7 +12159,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0004559393778166709</v>
+        <v>0.000462880174936025</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12177,10 +12177,10 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K185">
         <v>0.001033184443833148</v>
@@ -12209,25 +12209,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0004559393778166709</v>
+        <v>0.0004321145616220829</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E186">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F186">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>401</v>
@@ -12259,25 +12259,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0004559393778166709</v>
+        <v>0.0003986986442278045</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E187">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F187">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>402</v>
@@ -12309,25 +12309,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0004256350888191011</v>
+        <v>0.0003986986442278045</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E188">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F188">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>403</v>
@@ -12359,7 +12359,7 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0003927202365292481</v>
+        <v>0.0003986986442278045</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -12377,7 +12377,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>404</v>
@@ -12409,7 +12409,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0003927202365292481</v>
+        <v>0.0003986986442278045</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -12427,7 +12427,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>405</v>
@@ -12459,25 +12459,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0003927202365292481</v>
+        <v>0.0003950610134836134</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D191">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E191">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F191">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>406</v>
@@ -12509,25 +12509,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0003927202365292481</v>
+        <v>0.0003621935671386778</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E192">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F192">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>407</v>
@@ -12559,25 +12559,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0003891371513421096</v>
+        <v>0.0003621935671386778</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E193">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F193">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>408</v>
@@ -12609,7 +12609,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0003567625458861644</v>
+        <v>0.0003621935671386778</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -12627,7 +12627,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>409</v>
@@ -12659,25 +12659,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0003567625458861644</v>
+        <v>0.0003225659667672126</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E195">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F195">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>410</v>
@@ -12709,25 +12709,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0003567625458861644</v>
+        <v>0.0003220570172122317</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E196">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F196">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>411</v>
@@ -12759,25 +12759,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0003177291535827877</v>
+        <v>0.0003220570172122317</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E197">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F197">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>412</v>
@@ -12809,7 +12809,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003172278356262125</v>
+        <v>0.0003220570172122317</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>413</v>
@@ -12859,25 +12859,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0003172278356262125</v>
+        <v>0.0002975723890674825</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D199">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E199">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="F199">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>55</v>
+        <v>943</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>414</v>
@@ -12909,25 +12909,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0003172278356262125</v>
+        <v>0.0002844556113539941</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F200">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>415</v>
@@ -12959,25 +12959,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0002931103496614432</v>
+        <v>0.0002844556113539941</v>
       </c>
       <c r="C201">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E201">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="F201">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>943</v>
+        <v>23</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>416</v>
@@ -13009,7 +13009,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.000280190255448132</v>
+        <v>0.0002844556113539941</v>
       </c>
       <c r="C202">
         <v>2</v>
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>417</v>
@@ -13059,25 +13059,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.000280190255448132</v>
+        <v>0.0002776214182053079</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E203">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F203">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>418</v>
@@ -13109,25 +13109,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.000280190255448132</v>
+        <v>0.0002776214182053079</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E204">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F204">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>419</v>
@@ -13159,7 +13159,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0002734585396806083</v>
+        <v>0.0002776214182053079</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13177,7 +13177,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>420</v>
@@ -13209,25 +13209,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0002734585396806083</v>
+        <v>0.0002280885824810906</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E206">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F206">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>421</v>
@@ -13259,25 +13259,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0002734585396806083</v>
+        <v>0.0002280885824810906</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E207">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F207">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>422</v>
@@ -13309,7 +13309,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0002246684390790512</v>
+        <v>0.0002280885824810906</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13327,7 +13327,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>423</v>
@@ -13359,7 +13359,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0002246684390790512</v>
+        <v>0.0002280885824810906</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13377,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>424</v>
@@ -13409,7 +13409,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0002246684390790512</v>
+        <v>0.0002280885824810906</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13427,7 +13427,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>425</v>
@@ -13459,25 +13459,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0002246684390790512</v>
+        <v>0.0001726103033730423</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E211">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F211">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>426</v>
@@ -13509,25 +13509,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0002246684390790512</v>
+        <v>0.0001726103033730423</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E212">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F212">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>427</v>
@@ -13559,7 +13559,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0001700220458470249</v>
+        <v>0.0001726103033730423</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13577,7 +13577,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>428</v>
@@ -13609,7 +13609,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0001700220458470249</v>
+        <v>0.0001726103033730423</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -13627,7 +13627,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>429</v>
@@ -13659,25 +13659,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0001700220458470249</v>
+        <v>0.0001566413186615091</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E215">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F215">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>430</v>
@@ -13709,25 +13709,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0001700220458470249</v>
+        <v>0.0001566413186615091</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E216">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F216">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>431</v>
@@ -13759,13 +13759,13 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0001542925129182347</v>
+        <v>0.0001107621386395564</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E217">
         <v>0.75</v>
@@ -13777,7 +13777,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>432</v>
@@ -13809,13 +13809,13 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0001542925129182347</v>
+        <v>0.0001107621386395564</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E218">
         <v>0.75</v>
@@ -13827,7 +13827,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>433</v>
@@ -13859,7 +13859,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0001091012821707972</v>
+        <v>0.0001107621386395564</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -13877,7 +13877,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>434</v>
@@ -13909,7 +13909,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0001091012821707972</v>
+        <v>0.0001107621386395564</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -13927,7 +13927,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>435</v>
@@ -13959,7 +13959,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0001091012821707972</v>
+        <v>0.0001107621386395564</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -13977,7 +13977,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>436</v>
@@ -14009,7 +14009,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001091012821707972</v>
+        <v>0.0001107621386395564</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14027,7 +14027,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>437</v>
@@ -14059,7 +14059,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001091012821707972</v>
+        <v>0.0001107621386395564</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14077,7 +14077,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>438</v>
@@ -14109,25 +14109,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0001091012821707972</v>
+        <v>0.0001101916614281133</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E224">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F224">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>439</v>
@@ -14159,25 +14159,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0001091012821707972</v>
+        <v>0.0001101916614281133</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E225">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F225">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>440</v>
@@ -14209,25 +14209,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0001085393591528586</v>
+        <v>4.508324969293029E-05</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E226">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F226">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>441</v>
@@ -14259,25 +14259,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0001085393591528586</v>
+        <v>4.508324969293029E-05</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E227">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F227">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>442</v>
@@ -14309,7 +14309,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>4.440723523704426E-05</v>
+        <v>4.508324969293029E-05</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14327,7 +14327,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>443</v>
@@ -14359,7 +14359,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>4.440723523704426E-05</v>
+        <v>4.508324969293029E-05</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14377,7 +14377,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>444</v>
@@ -14409,7 +14409,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>4.440723523704426E-05</v>
+        <v>4.508324969293029E-05</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14427,7 +14427,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>445</v>
@@ -14459,7 +14459,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>4.440723523704426E-05</v>
+        <v>4.508324969293029E-05</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14477,7 +14477,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>446</v>
@@ -14509,7 +14509,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>4.440723523704426E-05</v>
+        <v>4.508324969293029E-05</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14527,7 +14527,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>447</v>
@@ -14559,7 +14559,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>4.440723523704426E-05</v>
+        <v>4.508324969293029E-05</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14577,7 +14577,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>448</v>
@@ -14609,25 +14609,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>4.440723523704426E-05</v>
+        <v>2.203140934529865E-05</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F234">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>449</v>
@@ -14659,25 +14659,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>4.440723523704426E-05</v>
+        <v>0</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F235">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>450</v>
@@ -14709,25 +14709,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>2.17010526983753E-05</v>
+        <v>0</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F236">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>451</v>
@@ -14777,7 +14777,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>452</v>
@@ -14827,7 +14827,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>453</v>
@@ -14877,7 +14877,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>454</v>
@@ -14962,10 +14962,10 @@
         <v>0</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E241">
         <v>0.5</v>
@@ -14977,7 +14977,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>456</v>
@@ -15027,7 +15027,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>457</v>
@@ -15062,10 +15062,10 @@
         <v>0</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E243">
         <v>0.5</v>
@@ -15077,7 +15077,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>458</v>
@@ -15127,7 +15127,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>459</v>
@@ -15177,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>460</v>
@@ -15227,7 +15227,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>461</v>
@@ -15277,7 +15277,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>462</v>
@@ -15305,30 +15305,6 @@
       </c>
     </row>
     <row r="248" spans="1:17">
-      <c r="A248" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B248">
-        <v>0</v>
-      </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-      <c r="D248">
-        <v>2</v>
-      </c>
-      <c r="E248">
-        <v>0.5</v>
-      </c>
-      <c r="F248">
-        <v>0.5</v>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248">
-        <v>54</v>
-      </c>
       <c r="J248" s="1" t="s">
         <v>463</v>
       </c>
@@ -15355,30 +15331,6 @@
       </c>
     </row>
     <row r="249" spans="1:17">
-      <c r="A249" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-      <c r="C249">
-        <v>1</v>
-      </c>
-      <c r="D249">
-        <v>2</v>
-      </c>
-      <c r="E249">
-        <v>0.5</v>
-      </c>
-      <c r="F249">
-        <v>0.5</v>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249">
-        <v>27</v>
-      </c>
       <c r="J249" s="1" t="s">
         <v>464</v>
       </c>
@@ -15406,7 +15358,7 @@
     </row>
     <row r="250" spans="1:17">
       <c r="J250" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K250">
         <v>0.001002229311943552</v>
@@ -15432,7 +15384,7 @@
     </row>
     <row r="251" spans="1:17">
       <c r="J251" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K251">
         <v>0.0009839873924960927</v>
@@ -15458,7 +15410,7 @@
     </row>
     <row r="252" spans="1:17">
       <c r="J252" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K252">
         <v>0.000970121041330565</v>
@@ -15484,7 +15436,7 @@
     </row>
     <row r="253" spans="1:17">
       <c r="J253" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K253">
         <v>0.0009475340970854546</v>
@@ -15510,7 +15462,7 @@
     </row>
     <row r="254" spans="1:17">
       <c r="J254" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K254">
         <v>0.0009195020201063068</v>
@@ -15536,7 +15488,7 @@
     </row>
     <row r="255" spans="1:17">
       <c r="J255" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K255">
         <v>0.0009035560696474651</v>
@@ -15562,7 +15514,7 @@
     </row>
     <row r="256" spans="1:17">
       <c r="J256" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K256">
         <v>0.0009035560696474651</v>
@@ -15588,7 +15540,7 @@
     </row>
     <row r="257" spans="10:17">
       <c r="J257" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K257">
         <v>0.0009035560696474651</v>
@@ -15614,7 +15566,7 @@
     </row>
     <row r="258" spans="10:17">
       <c r="J258" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K258">
         <v>0.0008626462622088862</v>
@@ -15640,7 +15592,7 @@
     </row>
     <row r="259" spans="10:17">
       <c r="J259" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K259">
         <v>0.0008626462622088862</v>
@@ -18578,7 +18530,7 @@
     </row>
     <row r="372" spans="10:17">
       <c r="J372" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K372">
         <v>0.0008264424717274216</v>
@@ -18604,7 +18556,7 @@
     </row>
     <row r="373" spans="10:17">
       <c r="J373" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K373">
         <v>0.0008212548678570992</v>
@@ -18630,7 +18582,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K374">
         <v>0.0007793676712122051</v>
@@ -18656,7 +18608,7 @@
     </row>
     <row r="375" spans="10:17">
       <c r="J375" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K375">
         <v>0.0007630357810226976</v>
@@ -18682,7 +18634,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K376">
         <v>0.0007566577712648227</v>
@@ -18708,7 +18660,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K377">
         <v>0.0007369706491420165</v>
@@ -18734,7 +18686,7 @@
     </row>
     <row r="378" spans="10:17">
       <c r="J378" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K378">
         <v>0.0007310368085033099</v>
@@ -18760,7 +18712,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K379">
         <v>0.0007310368085033099</v>
@@ -18786,7 +18738,7 @@
     </row>
     <row r="380" spans="10:17">
       <c r="J380" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K380">
         <v>0.0007093229630902238</v>
@@ -18812,7 +18764,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K381">
         <v>0.0006940503190456169</v>
@@ -18838,7 +18790,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K382">
         <v>0.0006940503190456169</v>
@@ -18864,7 +18816,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K383">
         <v>0.00068234989352054</v>
@@ -18890,7 +18842,7 @@
     </row>
     <row r="384" spans="10:17">
       <c r="J384" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K384">
         <v>0.0006338722990361506</v>
@@ -26638,7 +26590,7 @@
     </row>
     <row r="682" spans="10:17">
       <c r="J682" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K682">
         <v>0.000573584280266923</v>
@@ -26664,7 +26616,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K683">
         <v>0.0005620351595762126</v>
@@ -26690,7 +26642,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K684">
         <v>0.0005169210845896613</v>
@@ -26716,7 +26668,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K685">
         <v>0.0005061737907154192</v>
@@ -26742,7 +26694,7 @@
     </row>
     <row r="686" spans="10:17">
       <c r="J686" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K686">
         <v>0.0005017569624439392</v>
@@ -26768,7 +26720,7 @@
     </row>
     <row r="687" spans="10:17">
       <c r="J687" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K687">
         <v>0.0005017569624439392</v>
@@ -26820,7 +26772,7 @@
     </row>
     <row r="689" spans="10:17">
       <c r="J689" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K689">
         <v>0.0004712531674465922</v>
@@ -26846,7 +26798,7 @@
     </row>
     <row r="690" spans="10:17">
       <c r="J690" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K690">
         <v>0.0004712531674465922</v>
@@ -26872,7 +26824,7 @@
     </row>
     <row r="691" spans="10:17">
       <c r="J691" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K691">
         <v>0.0004712531674465922</v>
@@ -26898,7 +26850,7 @@
     </row>
     <row r="692" spans="10:17">
       <c r="J692" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K692">
         <v>0.0004250455978262573</v>
@@ -26924,7 +26876,7 @@
     </row>
     <row r="693" spans="10:17">
       <c r="J693" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K693">
         <v>0.0004250455978262573</v>
@@ -26950,7 +26902,7 @@
     </row>
     <row r="694" spans="10:17">
       <c r="J694" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K694">
         <v>0.0004250455978262573</v>
@@ -26976,7 +26928,7 @@
     </row>
     <row r="695" spans="10:17">
       <c r="J695" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K695">
         <v>0.0004210020352617052</v>
@@ -27002,7 +26954,7 @@
     </row>
     <row r="696" spans="10:17">
       <c r="J696" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K696">
         <v>0.0003810635056114779</v>
@@ -27028,7 +26980,7 @@
     </row>
     <row r="697" spans="10:17">
       <c r="J697" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K697">
         <v>0.0003783288856324114</v>
@@ -27054,7 +27006,7 @@
     </row>
     <row r="698" spans="10:17">
       <c r="J698" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K698">
         <v>0.0003311590386150453</v>
@@ -27080,7 +27032,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K699">
         <v>0.0003311590386150453</v>
@@ -27106,7 +27058,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K700">
         <v>0.0003311590386150453</v>
@@ -27132,7 +27084,7 @@
     </row>
     <row r="701" spans="10:17">
       <c r="J701" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K701">
         <v>0.0003311590386150453</v>
@@ -27158,7 +27110,7 @@
     </row>
     <row r="702" spans="10:17">
       <c r="J702" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K702">
         <v>0.0002836327172929685</v>
@@ -27184,7 +27136,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K703">
         <v>0.0002836327172929685</v>
@@ -27210,7 +27162,7 @@
     </row>
     <row r="704" spans="10:17">
       <c r="J704" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K704">
         <v>0.0002836327172929685</v>
@@ -27236,7 +27188,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K705">
         <v>0.0002445793436850896</v>
@@ -27262,7 +27214,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K706">
         <v>0.000235913278403051</v>
@@ -27288,7 +27240,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K707">
         <v>0.000235913278403051</v>
@@ -27314,7 +27266,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K708">
         <v>0.000235913278403051</v>
@@ -27340,7 +27292,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K709">
         <v>0.0001996981978844228</v>
@@ -27366,7 +27318,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K710">
         <v>0.0001882778339021872</v>
@@ -27392,7 +27344,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K711">
         <v>0.0001882778339021872</v>
@@ -27418,7 +27370,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K712">
         <v>0.0001882778339021872</v>
@@ -27470,7 +27422,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K714">
         <v>0.0001670672645464351</v>
@@ -27496,7 +27448,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K715">
         <v>0.0001670672645464351</v>
@@ -27522,7 +27474,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K716">
         <v>0.0001670672645464351</v>
@@ -27548,7 +27500,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K717">
         <v>0.000146610274398245</v>
@@ -27574,7 +27526,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K718">
         <v>0.0001412079499148085</v>
@@ -27600,7 +27552,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K719">
         <v>0.0001412079499148085</v>
@@ -27626,7 +27578,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K720">
         <v>0.0001412079499148085</v>
@@ -27652,7 +27604,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K721">
         <v>0.0001412079499148085</v>
@@ -27678,7 +27630,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K722">
         <v>0.0001412079499148085</v>
@@ -27704,7 +27656,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K723">
         <v>9.558006269919768E-05</v>
@@ -27730,7 +27682,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K724">
         <v>9.558006269919768E-05</v>
@@ -27756,7 +27708,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K725">
         <v>9.558006269919768E-05</v>
@@ -27782,7 +27734,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K726">
         <v>9.558006269919768E-05</v>
@@ -27808,7 +27760,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K727">
         <v>7.51168828264081E-05</v>
@@ -27834,7 +27786,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K728">
         <v>7.51168828264081E-05</v>
@@ -27860,7 +27812,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K729">
         <v>5.311565722814849E-05</v>
@@ -27886,7 +27838,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K730">
         <v>5.311565722814849E-05</v>
@@ -27912,7 +27864,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K731">
         <v>5.311565722814849E-05</v>
@@ -27938,7 +27890,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K732">
         <v>5.311565722814849E-05</v>
@@ -27964,7 +27916,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K733">
         <v>5.311565722814849E-05</v>
@@ -27990,7 +27942,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K734">
         <v>5.311565722814849E-05</v>
@@ -28016,7 +27968,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K735">
         <v>5.311565722814849E-05</v>
@@ -28042,7 +27994,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K736">
         <v>4.823800465967868E-05</v>
@@ -28068,7 +28020,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K737">
         <v>4.823800465967868E-05</v>
@@ -28094,7 +28046,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K738">
         <v>1.765228012719983E-05</v>
@@ -28120,7 +28072,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K739">
         <v>1.765228012719983E-05</v>
@@ -28146,7 +28098,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K740">
         <v>1.765228012719983E-05</v>
@@ -28172,7 +28124,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K741">
         <v>1.765228012719983E-05</v>
@@ -28198,7 +28150,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K742">
         <v>1.765228012719983E-05</v>
@@ -28224,7 +28176,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K743">
         <v>1.765228012719983E-05</v>
@@ -28250,7 +28202,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K744">
         <v>1.765228012719983E-05</v>
@@ -28276,7 +28228,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K745">
         <v>1.765228012719983E-05</v>
@@ -28302,7 +28254,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K746">
         <v>7.470652041474818E-06</v>
@@ -28328,7 +28280,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K747">
         <v>0</v>
@@ -28354,7 +28306,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K748">
         <v>0</v>
@@ -28380,7 +28332,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K749">
         <v>0</v>
@@ -28406,7 +28358,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K750">
         <v>0</v>
@@ -28432,7 +28384,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K751">
         <v>0</v>
@@ -28458,7 +28410,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K752">
         <v>0</v>
@@ -28484,7 +28436,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K753">
         <v>0</v>
@@ -28510,7 +28462,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K754">
         <v>0</v>
@@ -28536,7 +28488,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K755">
         <v>0</v>
@@ -28562,7 +28514,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K756">
         <v>0</v>
@@ -28588,7 +28540,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K757">
         <v>0</v>
@@ -28614,7 +28566,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K758">
         <v>0</v>
@@ -28640,7 +28592,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K759">
         <v>0</v>
